--- a/bus_202/data/group_3_5.xlsx
+++ b/bus_202/data/group_3_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21C207D-2DA6-4A12-884E-D4CF575FACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0198CE2-DB35-48D2-B43C-BF200E996D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:W346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2028,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G2">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H2">
         <v>220</v>
@@ -2099,7 +2099,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G3">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H3">
         <v>195</v>
@@ -2170,7 +2170,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G4">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H4">
         <v>208</v>
@@ -2241,7 +2241,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G5">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H5">
         <v>195</v>
@@ -2312,7 +2312,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G6">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H6">
         <v>186</v>
@@ -2383,7 +2383,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G7">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H7">
         <v>197</v>
@@ -2454,7 +2454,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G8">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H8">
         <v>205</v>
@@ -2525,7 +2525,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G9">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H9">
         <v>220</v>
@@ -2596,7 +2596,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G10">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H10">
         <v>209</v>
@@ -2667,7 +2667,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G11">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H11">
         <v>230</v>
@@ -2738,7 +2738,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G12">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H12">
         <v>225</v>
@@ -2809,7 +2809,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G13">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H13">
         <v>220</v>
@@ -2880,7 +2880,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G14">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H14">
         <v>210</v>
@@ -2951,7 +2951,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G15">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H15">
         <v>250</v>
@@ -3022,7 +3022,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G16">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H16">
         <v>240</v>
@@ -3093,7 +3093,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G17">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H17">
         <v>265</v>
@@ -3164,7 +3164,7 @@
         <v>4.4426512564903167</v>
       </c>
       <c r="G18">
-        <v>8.8853025129806333</v>
+        <v>19.737150186794988</v>
       </c>
       <c r="H18">
         <v>208</v>
@@ -3235,7 +3235,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G19">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H19">
         <v>185</v>
@@ -3306,7 +3306,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G20">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H20">
         <v>203</v>
@@ -3377,7 +3377,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G21">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H21">
         <v>215</v>
@@ -3448,7 +3448,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G22">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H22">
         <v>264</v>
@@ -3519,7 +3519,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G23">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H23">
         <v>218</v>
@@ -3590,7 +3590,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G24">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H24">
         <v>175</v>
@@ -3661,7 +3661,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G25">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H25">
         <v>224</v>
@@ -3732,7 +3732,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G26">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -3803,7 +3803,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G27">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H27">
         <v>216</v>
@@ -3874,7 +3874,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G28">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H28">
         <v>245</v>
@@ -3945,7 +3945,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G29">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H29">
         <v>250</v>
@@ -4016,7 +4016,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G30">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H30">
         <v>245</v>
@@ -4087,7 +4087,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G31">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H31">
         <v>225</v>
@@ -4158,7 +4158,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G32">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H32">
         <v>220</v>
@@ -4229,7 +4229,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G33">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H33">
         <v>187</v>
@@ -4300,7 +4300,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G34">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H34">
         <v>225</v>
@@ -4371,7 +4371,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G35">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H35">
         <v>195</v>
@@ -4442,7 +4442,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G36">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H36">
         <v>205</v>
@@ -4513,7 +4513,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G37">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H37">
         <v>220</v>
@@ -4584,7 +4584,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G38">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H38">
         <v>226</v>
@@ -4655,7 +4655,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G39">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H39">
         <v>217</v>
@@ -4726,7 +4726,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G40">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H40">
         <v>230</v>
@@ -4797,7 +4797,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G41">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H41">
         <v>279</v>
@@ -4868,7 +4868,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G42">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H42">
         <v>284</v>
@@ -4939,7 +4939,7 @@
         <v>4.4426512564903167</v>
       </c>
       <c r="G43">
-        <v>8.8853025129806333</v>
+        <v>19.737150186794988</v>
       </c>
       <c r="H43">
         <v>282</v>
@@ -5010,7 +5010,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G44">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H44">
         <v>183</v>
@@ -5081,7 +5081,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G45">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H45">
         <v>190</v>
@@ -5152,7 +5152,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G46">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H46">
         <v>165</v>
@@ -5223,7 +5223,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G47">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H47">
         <v>194</v>
@@ -5294,7 +5294,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G48">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H48">
         <v>190</v>
@@ -5365,7 +5365,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G49">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H49">
         <v>180</v>
@@ -5436,7 +5436,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G50">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H50">
         <v>215</v>
@@ -5507,7 +5507,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G51">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H51">
         <v>218</v>
@@ -5578,7 +5578,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G52">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H52">
         <v>235</v>
@@ -5649,7 +5649,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G53">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H53">
         <v>240</v>
@@ -5720,7 +5720,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G54">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H54">
         <v>185</v>
@@ -5791,7 +5791,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G55">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H55">
         <v>185</v>
@@ -5862,7 +5862,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G56">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H56">
         <v>190</v>
@@ -5933,7 +5933,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G57">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H57">
         <v>195</v>
@@ -6004,7 +6004,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G58">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H58">
         <v>220</v>
@@ -6075,7 +6075,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G59">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H59">
         <v>225</v>
@@ -6146,7 +6146,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G60">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H60">
         <v>243</v>
@@ -6217,7 +6217,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G61">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H61">
         <v>250</v>
@@ -6288,7 +6288,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G62">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H62">
         <v>193</v>
@@ -6359,7 +6359,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G63">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H63">
         <v>215</v>
@@ -6430,7 +6430,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G64">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H64">
         <v>200</v>
@@ -6501,7 +6501,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G65">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H65">
         <v>204</v>
@@ -6572,7 +6572,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G66">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H66">
         <v>209</v>
@@ -6643,7 +6643,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G67">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H67">
         <v>215</v>
@@ -6714,7 +6714,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G68">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H68">
         <v>210</v>
@@ -6785,7 +6785,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G69">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H69">
         <v>236</v>
@@ -6856,7 +6856,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G70">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H70">
         <v>206</v>
@@ -6927,7 +6927,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G71">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H71">
         <v>253</v>
@@ -6998,7 +6998,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G72">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H72">
         <v>260</v>
@@ -7069,7 +7069,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G73">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H73">
         <v>220</v>
@@ -7140,7 +7140,7 @@
         <v>4.4426512564903167</v>
       </c>
       <c r="G74">
-        <v>8.8853025129806333</v>
+        <v>19.737150186794988</v>
       </c>
       <c r="H74">
         <v>258</v>
@@ -7211,7 +7211,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G75">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H75">
         <v>175</v>
@@ -7282,7 +7282,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G76">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H76">
         <v>290</v>
@@ -7353,7 +7353,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G77">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H77">
         <v>198</v>
@@ -7424,7 +7424,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G78">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H78">
         <v>185</v>
@@ -7495,7 +7495,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G79">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H79">
         <v>180</v>
@@ -7566,7 +7566,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G80">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H80">
         <v>205</v>
@@ -7637,7 +7637,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G81">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H81">
         <v>215</v>
@@ -7708,7 +7708,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G82">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H82">
         <v>225</v>
@@ -7779,7 +7779,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G83">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H83">
         <v>195</v>
@@ -7850,7 +7850,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G84">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H84">
         <v>210</v>
@@ -7921,7 +7921,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G85">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H85">
         <v>245</v>
@@ -7992,7 +7992,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G86">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H86">
         <v>240</v>
@@ -8063,7 +8063,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G87">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H87">
         <v>250</v>
@@ -8134,7 +8134,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G88">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H88">
         <v>185</v>
@@ -8205,7 +8205,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G89">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H89">
         <v>185</v>
@@ -8276,7 +8276,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G90">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H90">
         <v>205</v>
@@ -8347,7 +8347,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G91">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H91">
         <v>200</v>
@@ -8418,7 +8418,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G92">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H92">
         <v>225</v>
@@ -8489,7 +8489,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G93">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H93">
         <v>217</v>
@@ -8560,7 +8560,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G94">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H94">
         <v>210</v>
@@ -8631,7 +8631,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G95">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H95">
         <v>230</v>
@@ -8702,7 +8702,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G96">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H96">
         <v>220</v>
@@ -8773,7 +8773,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G97">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H97">
         <v>243</v>
@@ -8844,7 +8844,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G98">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H98">
         <v>222</v>
@@ -8915,7 +8915,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G99">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H99">
         <v>234</v>
@@ -8986,7 +8986,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G100">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H100">
         <v>195</v>
@@ -9057,7 +9057,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G101">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H101">
         <v>180</v>
@@ -9128,7 +9128,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G102">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H102">
         <v>198</v>
@@ -9199,7 +9199,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G103">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H103">
         <v>190</v>
@@ -9270,7 +9270,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G104">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H104">
         <v>230</v>
@@ -9341,7 +9341,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G105">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H105">
         <v>235</v>
@@ -9412,7 +9412,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G106">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H106">
         <v>256</v>
@@ -9483,7 +9483,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G107">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H107">
         <v>243</v>
@@ -9554,7 +9554,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G108">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H108">
         <v>197</v>
@@ -9625,7 +9625,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G109">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H109">
         <v>200</v>
@@ -9696,7 +9696,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G110">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H110">
         <v>200</v>
@@ -9767,7 +9767,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G111">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H111">
         <v>220</v>
@@ -9838,7 +9838,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G112">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H112">
         <v>215</v>
@@ -9909,7 +9909,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G113">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H113">
         <v>225</v>
@@ -9980,7 +9980,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G114">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H114">
         <v>230</v>
@@ -10051,7 +10051,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G115">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H115">
         <v>227</v>
@@ -10122,7 +10122,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G116">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H116">
         <v>185</v>
@@ -10193,7 +10193,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G117">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H117">
         <v>220</v>
@@ -10264,7 +10264,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G118">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H118">
         <v>202</v>
@@ -10335,7 +10335,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G119">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H119">
         <v>190</v>
@@ -10403,7 +10403,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G120">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H120">
         <v>195</v>
@@ -10474,7 +10474,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G121">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H121">
         <v>186</v>
@@ -10545,7 +10545,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G122">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H122">
         <v>204</v>
@@ -10616,7 +10616,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G123">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H123">
         <v>211</v>
@@ -10687,7 +10687,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G124">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H124">
         <v>197</v>
@@ -10758,7 +10758,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G125">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H125">
         <v>255</v>
@@ -10829,7 +10829,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G126">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H126">
         <v>250</v>
@@ -10900,7 +10900,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G127">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H127">
         <v>215</v>
@@ -10971,7 +10971,7 @@
         <v>4.4773368144782069</v>
       </c>
       <c r="G128">
-        <v>8.9546736289564137</v>
+        <v>20.046544950281856</v>
       </c>
       <c r="H128">
         <v>210</v>
@@ -11042,7 +11042,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G129">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H129">
         <v>200</v>
@@ -11113,7 +11113,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G130">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H130">
         <v>215</v>
@@ -11184,7 +11184,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G131">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H131">
         <v>223</v>
@@ -11255,7 +11255,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G132">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H132">
         <v>284</v>
@@ -11326,7 +11326,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G133">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H133">
         <v>210</v>
@@ -11397,7 +11397,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G134">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H134">
         <v>230</v>
@@ -11468,7 +11468,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G135">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H135">
         <v>226</v>
@@ -11539,7 +11539,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G136">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H136">
         <v>226</v>
@@ -11610,7 +11610,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G137">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H137">
         <v>221</v>
@@ -11681,7 +11681,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G138">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H138">
         <v>220</v>
@@ -11752,7 +11752,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G139">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H139">
         <v>185</v>
@@ -11823,7 +11823,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G140">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H140">
         <v>205</v>
@@ -11894,7 +11894,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G141">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H141">
         <v>225</v>
@@ -11965,7 +11965,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G142">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H142">
         <v>220</v>
@@ -12036,7 +12036,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G143">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H143">
         <v>185</v>
@@ -12107,7 +12107,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G144">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H144">
         <v>210</v>
@@ -12178,7 +12178,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G145">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H145">
         <v>200</v>
@@ -12249,7 +12249,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G146">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H146">
         <v>225</v>
@@ -12320,7 +12320,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G147">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H147">
         <v>240</v>
@@ -12391,7 +12391,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G148">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H148">
         <v>250</v>
@@ -12462,7 +12462,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G149">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H149">
         <v>195</v>
@@ -12533,7 +12533,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G150">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H150">
         <v>190</v>
@@ -12604,7 +12604,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G151">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H151">
         <v>215</v>
@@ -12675,7 +12675,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G152">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H152">
         <v>191</v>
@@ -12746,7 +12746,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G153">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H153">
         <v>200</v>
@@ -12817,7 +12817,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G154">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H154">
         <v>200</v>
@@ -12888,7 +12888,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G155">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H155">
         <v>205</v>
@@ -12959,7 +12959,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G156">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H156">
         <v>206</v>
@@ -13030,7 +13030,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G157">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H157">
         <v>220</v>
@@ -13101,7 +13101,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G158">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H158">
         <v>215</v>
@@ -13172,7 +13172,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G159">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H159">
         <v>225</v>
@@ -13243,7 +13243,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G160">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H160">
         <v>203</v>
@@ -13314,7 +13314,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G161">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H161">
         <v>230</v>
@@ -13385,7 +13385,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G162">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H162">
         <v>245</v>
@@ -13456,7 +13456,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G163">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H163">
         <v>220</v>
@@ -13527,7 +13527,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G164">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H164">
         <v>226</v>
@@ -13598,7 +13598,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G165">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H165">
         <v>245</v>
@@ -13669,7 +13669,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G166">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H166">
         <v>240</v>
@@ -13740,7 +13740,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G167">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H167">
         <v>202</v>
@@ -13811,7 +13811,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G168">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H168">
         <v>190</v>
@@ -13882,7 +13882,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G169">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H169">
         <v>190</v>
@@ -13953,7 +13953,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G170">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H170">
         <v>245</v>
@@ -14024,7 +14024,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G171">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H171">
         <v>196</v>
@@ -14095,7 +14095,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G172">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H172">
         <v>190</v>
@@ -14166,7 +14166,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G173">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H173">
         <v>210</v>
@@ -14237,7 +14237,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G174">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H174">
         <v>205</v>
@@ -14308,7 +14308,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G175">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H175">
         <v>214</v>
@@ -14379,7 +14379,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G176">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H176">
         <v>220</v>
@@ -14444,7 +14444,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G177">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H177">
         <v>211</v>
@@ -14515,7 +14515,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G178">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H178">
         <v>215</v>
@@ -14586,7 +14586,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G179">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H179">
         <v>220</v>
@@ -14657,7 +14657,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G180">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H180">
         <v>209</v>
@@ -14728,7 +14728,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G181">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H181">
         <v>242</v>
@@ -14799,7 +14799,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G182">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H182">
         <v>255</v>
@@ -14870,7 +14870,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G183">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H183">
         <v>230</v>
@@ -14941,7 +14941,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G184">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H184">
         <v>201</v>
@@ -15012,7 +15012,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G185">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H185">
         <v>240</v>
@@ -15083,7 +15083,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G186">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H186">
         <v>205</v>
@@ -15154,7 +15154,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G187">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H187">
         <v>225</v>
@@ -15225,7 +15225,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G188">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H188">
         <v>198</v>
@@ -15296,7 +15296,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G189">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H189">
         <v>190</v>
@@ -15367,7 +15367,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G190">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H190">
         <v>225</v>
@@ -15438,7 +15438,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G191">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H191">
         <v>245</v>
@@ -15509,7 +15509,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G192">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H192">
         <v>205</v>
@@ -15580,7 +15580,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G193">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H193">
         <v>215</v>
@@ -15651,7 +15651,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G194">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H194">
         <v>195</v>
@@ -15722,7 +15722,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G195">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H195">
         <v>237</v>
@@ -15793,7 +15793,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G196">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H196">
         <v>203</v>
@@ -15864,7 +15864,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G197">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H197">
         <v>240</v>
@@ -15935,7 +15935,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G198">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H198">
         <v>243</v>
@@ -16006,7 +16006,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G199">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H199">
         <v>240</v>
@@ -16077,7 +16077,7 @@
         <v>4.4426512564903167</v>
       </c>
       <c r="G200">
-        <v>8.8853025129806333</v>
+        <v>19.737150186794988</v>
       </c>
       <c r="H200">
         <v>250</v>
@@ -16148,7 +16148,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G201">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H201">
         <v>202</v>
@@ -16219,7 +16219,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G202">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H202">
         <v>220</v>
@@ -16290,7 +16290,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G203">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H203">
         <v>200</v>
@@ -16361,7 +16361,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G204">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H204">
         <v>210</v>
@@ -16432,7 +16432,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G205">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H205">
         <v>250</v>
@@ -16503,7 +16503,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G206">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H206">
         <v>248</v>
@@ -16574,7 +16574,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G207">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H207">
         <v>190</v>
@@ -16645,7 +16645,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G208">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H208">
         <v>185</v>
@@ -16716,7 +16716,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G209">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H209">
         <v>205</v>
@@ -16787,7 +16787,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G210">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H210">
         <v>199</v>
@@ -16858,7 +16858,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G211">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H211">
         <v>245</v>
@@ -16929,7 +16929,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G212">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H212">
         <v>265</v>
@@ -17000,7 +17000,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G213">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H213">
         <v>215</v>
@@ -17071,7 +17071,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G214">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H214">
         <v>250</v>
@@ -17142,7 +17142,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G215">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H215">
         <v>215</v>
@@ -17213,7 +17213,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G216">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H216">
         <v>188</v>
@@ -17284,7 +17284,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G217">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H217">
         <v>213</v>
@@ -17355,7 +17355,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G218">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H218">
         <v>200</v>
@@ -17426,7 +17426,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G219">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H219">
         <v>215</v>
@@ -17497,7 +17497,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G220">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H220">
         <v>230</v>
@@ -17568,7 +17568,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G221">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H221">
         <v>237</v>
@@ -17639,7 +17639,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G222">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H222">
         <v>245</v>
@@ -17710,7 +17710,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G223">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H223">
         <v>230</v>
@@ -17781,7 +17781,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G224">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H224">
         <v>205</v>
@@ -17852,7 +17852,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G225">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H225">
         <v>196</v>
@@ -17923,7 +17923,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G226">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H226">
         <v>215</v>
@@ -17994,7 +17994,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G227">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H227">
         <v>210</v>
@@ -18065,7 +18065,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G228">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H228">
         <v>190</v>
@@ -18136,7 +18136,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G229">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H229">
         <v>175</v>
@@ -18207,7 +18207,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G230">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H230">
         <v>195</v>
@@ -18278,7 +18278,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G231">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H231">
         <v>215</v>
@@ -18349,7 +18349,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G232">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H232">
         <v>205</v>
@@ -18420,7 +18420,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G233">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H233">
         <v>195</v>
@@ -18491,7 +18491,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G234">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H234">
         <v>204</v>
@@ -18562,7 +18562,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G235">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H235">
         <v>180</v>
@@ -18633,7 +18633,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G236">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H236">
         <v>214</v>
@@ -18704,7 +18704,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G237">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H237">
         <v>210</v>
@@ -18775,7 +18775,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G238">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H238">
         <v>234</v>
@@ -18846,7 +18846,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G239">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H239">
         <v>240</v>
@@ -18917,7 +18917,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G240">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H240">
         <v>230</v>
@@ -18988,7 +18988,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G241">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H241">
         <v>175</v>
@@ -19059,7 +19059,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G242">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H242">
         <v>192</v>
@@ -19130,7 +19130,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G243">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H243">
         <v>175</v>
@@ -19201,7 +19201,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G244">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H244">
         <v>200</v>
@@ -19272,7 +19272,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G245">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H245">
         <v>200</v>
@@ -19343,7 +19343,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G246">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H246">
         <v>209</v>
@@ -19414,7 +19414,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G247">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H247">
         <v>190</v>
@@ -19485,7 +19485,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G248">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H248">
         <v>226</v>
@@ -19556,7 +19556,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G249">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H249">
         <v>221</v>
@@ -19627,7 +19627,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G250">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H250">
         <v>206</v>
@@ -19698,7 +19698,7 @@
         <v>4.4543472962535073</v>
       </c>
       <c r="G251">
-        <v>8.9086945925070147</v>
+        <v>19.841209835640932</v>
       </c>
       <c r="H251">
         <v>240</v>
@@ -19769,7 +19769,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G252">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H252">
         <v>231</v>
@@ -19840,7 +19840,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G253">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H253">
         <v>205</v>
@@ -19911,7 +19911,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G254">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H254">
         <v>190</v>
@@ -19982,7 +19982,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G255">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H255">
         <v>219</v>
@@ -20053,7 +20053,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G256">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H256">
         <v>255</v>
@@ -20124,7 +20124,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G257">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H257">
         <v>185</v>
@@ -20195,7 +20195,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G258">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H258">
         <v>179</v>
@@ -20266,7 +20266,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G259">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H259">
         <v>215</v>
@@ -20337,7 +20337,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G260">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H260">
         <v>194</v>
@@ -20408,7 +20408,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G261">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H261">
         <v>214</v>
@@ -20479,7 +20479,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G262">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H262">
         <v>210</v>
@@ -20550,7 +20550,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G263">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H263">
         <v>230</v>
@@ -20621,7 +20621,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G264">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H264">
         <v>222</v>
@@ -20692,7 +20692,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G265">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H265">
         <v>210</v>
@@ -20763,7 +20763,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G266">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H266">
         <v>251</v>
@@ -20834,7 +20834,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G267">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H267">
         <v>240</v>
@@ -20905,7 +20905,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G268">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H268">
         <v>270</v>
@@ -20976,7 +20976,7 @@
         <v>4.4426512564903167</v>
       </c>
       <c r="G269">
-        <v>8.8853025129806333</v>
+        <v>19.737150186794988</v>
       </c>
       <c r="H269">
         <v>230</v>
@@ -21047,7 +21047,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G270">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H270">
         <v>247</v>
@@ -21118,7 +21118,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G271">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H271">
         <v>240</v>
@@ -21189,7 +21189,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G272">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H272">
         <v>164</v>
@@ -21260,7 +21260,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G273">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H273">
         <v>210</v>
@@ -21331,7 +21331,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G274">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H274">
         <v>210</v>
@@ -21402,7 +21402,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G275">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H275">
         <v>203</v>
@@ -21473,7 +21473,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G276">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H276">
         <v>245</v>
@@ -21544,7 +21544,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G277">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H277">
         <v>204</v>
@@ -21615,7 +21615,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G278">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H278">
         <v>228</v>
@@ -21686,7 +21686,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G279">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H279">
         <v>207</v>
@@ -21757,7 +21757,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G280">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H280">
         <v>221</v>
@@ -21828,7 +21828,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G281">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H281">
         <v>229</v>
@@ -21899,7 +21899,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G282">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H282">
         <v>240</v>
@@ -21970,7 +21970,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G283">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H283">
         <v>205</v>
@@ -22041,7 +22041,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G284">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H284">
         <v>225</v>
@@ -22112,7 +22112,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G285">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H285">
         <v>180</v>
@@ -22183,7 +22183,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G286">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H286">
         <v>185</v>
@@ -22254,7 +22254,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G287">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H287">
         <v>234</v>
@@ -22325,7 +22325,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G288">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H288">
         <v>210</v>
@@ -22396,7 +22396,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G289">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H289">
         <v>225</v>
@@ -22467,7 +22467,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G290">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H290">
         <v>185</v>
@@ -22538,7 +22538,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G291">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H291">
         <v>225</v>
@@ -22609,7 +22609,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G292">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H292">
         <v>195</v>
@@ -22680,7 +22680,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G293">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H293">
         <v>235</v>
@@ -22751,7 +22751,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G294">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H294">
         <v>205</v>
@@ -22822,7 +22822,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G295">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H295">
         <v>240</v>
@@ -22893,7 +22893,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G296">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H296">
         <v>230</v>
@@ -22964,7 +22964,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G297">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H297">
         <v>214</v>
@@ -23035,7 +23035,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G298">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H298">
         <v>200</v>
@@ -23106,7 +23106,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G299">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H299">
         <v>190</v>
@@ -23177,7 +23177,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G300">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H300">
         <v>235</v>
@@ -23248,7 +23248,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G301">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H301">
         <v>215</v>
@@ -23319,7 +23319,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G302">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H302">
         <v>260</v>
@@ -23390,7 +23390,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G303">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H303">
         <v>202</v>
@@ -23461,7 +23461,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G304">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H304">
         <v>218</v>
@@ -23532,7 +23532,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G305">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H305">
         <v>254</v>
@@ -23603,7 +23603,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G306">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H306">
         <v>236</v>
@@ -23674,7 +23674,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G307">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H307">
         <v>205</v>
@@ -23745,7 +23745,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G308">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H308">
         <v>217</v>
@@ -23816,7 +23816,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G309">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H309">
         <v>199</v>
@@ -23887,7 +23887,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G310">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H310">
         <v>210</v>
@@ -23958,7 +23958,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G311">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H311">
         <v>275</v>
@@ -24029,7 +24029,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G312">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H312">
         <v>250</v>
@@ -24100,7 +24100,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G313">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H313">
         <v>185</v>
@@ -24171,7 +24171,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G314">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H314">
         <v>230</v>
@@ -24242,7 +24242,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G315">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H315">
         <v>229</v>
@@ -24313,7 +24313,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="G316">
-        <v>8.6349762270726202</v>
+        <v>18.640703610527325</v>
       </c>
       <c r="H316">
         <v>193</v>
@@ -24384,7 +24384,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G317">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H317">
         <v>190</v>
@@ -24455,7 +24455,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G318">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H318">
         <v>250</v>
@@ -24526,7 +24526,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G319">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H319">
         <v>250</v>
@@ -24597,7 +24597,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G320">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H320">
         <v>240</v>
@@ -24668,7 +24668,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G321">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H321">
         <v>254</v>
@@ -24739,7 +24739,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G322">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H322">
         <v>205</v>
@@ -24810,7 +24810,7 @@
         <v>4.4308167988433134</v>
       </c>
       <c r="G323">
-        <v>8.8616335976866267</v>
+        <v>19.632137504912105</v>
       </c>
       <c r="H323">
         <v>270</v>
@@ -24881,7 +24881,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G324">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H324">
         <v>220</v>
@@ -24952,7 +24952,7 @@
         <v>4.3944491546724391</v>
       </c>
       <c r="G325">
-        <v>8.7888983093448783</v>
+        <v>19.311183373001313</v>
       </c>
       <c r="H325">
         <v>240</v>
@@ -25023,7 +25023,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G326">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H326">
         <v>250</v>
@@ -25094,7 +25094,7 @@
         <v>4.290459441148391</v>
       </c>
       <c r="G327">
-        <v>8.5809188822967819</v>
+        <v>18.408042216139364</v>
       </c>
       <c r="H327">
         <v>185</v>
@@ -25165,7 +25165,7 @@
         <v>4.3040650932041702</v>
       </c>
       <c r="G328">
-        <v>8.6081301864083404</v>
+        <v>18.524976326538621</v>
       </c>
       <c r="H328">
         <v>195</v>
@@ -25236,7 +25236,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G329">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H329">
         <v>205</v>
@@ -25307,7 +25307,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G330">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H330">
         <v>250</v>
@@ -25378,7 +25378,7 @@
         <v>4.3307333402863311</v>
       </c>
       <c r="G331">
-        <v>8.6614666805726621</v>
+        <v>18.755251264667603</v>
       </c>
       <c r="H331">
         <v>209</v>
@@ -25449,7 +25449,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G332">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H332">
         <v>200</v>
@@ -25520,7 +25520,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G333">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H333">
         <v>235</v>
@@ -25591,7 +25591,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G334">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H334">
         <v>220</v>
@@ -25662,7 +25662,7 @@
         <v>4.3694478524670215</v>
       </c>
       <c r="G335">
-        <v>8.738895704934043</v>
+        <v>19.092074535428665</v>
       </c>
       <c r="H335">
         <v>215</v>
@@ -25733,7 +25733,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G336">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H336">
         <v>225</v>
@@ -25804,7 +25804,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G337">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H337">
         <v>227</v>
@@ -25875,7 +25875,7 @@
         <v>4.4067192472642533</v>
       </c>
       <c r="G338">
-        <v>8.8134384945285067</v>
+        <v>19.419174524209229</v>
       </c>
       <c r="H338">
         <v>240</v>
@@ -25946,7 +25946,7 @@
         <v>4.4188406077965983</v>
       </c>
       <c r="G339">
-        <v>8.8376812155931965</v>
+        <v>19.52615231711221</v>
       </c>
       <c r="H339">
         <v>240</v>
@@ -26017,7 +26017,7 @@
         <v>4.4659081186545837</v>
       </c>
       <c r="G340">
-        <v>8.9318162373091674</v>
+        <v>19.944335324264923</v>
       </c>
       <c r="H340">
         <v>220</v>
@@ -26088,7 +26088,7 @@
         <v>4.2766661190160553</v>
       </c>
       <c r="G341">
-        <v>8.5533322380321106</v>
+        <v>18.28987309353985</v>
       </c>
       <c r="H341">
         <v>175</v>
@@ -26159,7 +26159,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G342">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H342">
         <v>215</v>
@@ -26230,7 +26230,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G343">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H343">
         <v>195</v>
@@ -26301,7 +26301,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="G344">
-        <v>8.6876108437073682</v>
+        <v>18.868645542925464</v>
       </c>
       <c r="H344">
         <v>195</v>
@@ -26372,7 +26372,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="G345">
-        <v>8.7134176533791834</v>
+        <v>18.980911800554999</v>
       </c>
       <c r="H345">
         <v>179</v>
@@ -26443,7 +26443,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="G346">
-        <v>8.7640532693477624</v>
+        <v>19.202157426991302</v>
       </c>
       <c r="H346">
         <v>225</v>
